--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="25920" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>接口测试用例</t>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>用例</t>
@@ -47,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +61,120 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,130 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +217,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,30 +271,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,31 +337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,72 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,6 +426,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -443,6 +446,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,11 +502,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,30 +1007,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1049,10 +1053,13 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1061,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1078,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7500"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>断言</t>
+  </si>
+  <si>
+    <t>ces</t>
+  </si>
+  <si>
+    <t>ming</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
+  </si>
+  <si>
+    <t>code=40007</t>
   </si>
 </sst>
 </file>
@@ -50,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,8 +85,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF93A2A9"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,45 +220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +244,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3F4F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,36 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,12 +435,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF2F5F8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,15 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -516,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,142 +570,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,54 +1067,164 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="54.75" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="54.75" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="54.75" spans="1:8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1085,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -60,10 +60,13 @@
     <t>POST</t>
   </si>
   <si>
+    <t>{ 'key':'APIKEY', “info”:“你好”, “userid”:“123456” }</t>
+  </si>
+  <si>
+    <t>code=40007</t>
+  </si>
+  <si>
     <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
-  </si>
-  <si>
-    <t>code=40007</t>
   </si>
 </sst>
 </file>
@@ -71,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -700,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
@@ -1208,7 +1208,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1221,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -60,13 +60,13 @@
     <t>POST</t>
   </si>
   <si>
-    <t>{ 'key':'APIKEY', “info”:“你好”, “userid”:“123456” }</t>
-  </si>
-  <si>
     <t>code=40007</t>
   </si>
   <si>
-    <t>{ “key”:“APIKEY”, “info”:“你好”, “userid”:“123456” }</t>
+    <t>ZXFCSDFcode=40007</t>
+  </si>
+  <si>
+    <t>aweqweqwe为了符合we请发货</t>
   </si>
 </sst>
 </file>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -283,157 +283,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,145 +561,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1146,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="54.75" spans="1:8">
@@ -1169,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="54.75" spans="1:8">
@@ -1195,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,14 +100,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -117,7 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,112 +236,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,6 +259,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,175 +367,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,6 +488,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +516,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,39 +536,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>请求头</t>
+  </si>
+  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -57,10 +60,10 @@
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
+    <t>asdfasdfadsf</t>
+  </si>
+  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>asdfasdfadsf</t>
   </si>
   <si>
     <t>code=40007</t>
@@ -80,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,74 +104,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,36 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +203,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -259,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,17 +465,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,15 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,30 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +538,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,22 +1082,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="62.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1105,9 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,114 +1132,129 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="54.75" spans="1:8">
+    <row r="3" ht="54.75" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="54.75" spans="1:8">
+    <row r="4" ht="54.75" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" ht="54.75" spans="1:8">
+    <row r="5" ht="54.75" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" ht="54" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app/upload/interface_case.xlsx
+++ b/app/upload/interface_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>接口测试用例</t>
   </si>
@@ -36,6 +36,9 @@
     <t>接口url</t>
   </si>
   <si>
+    <t>请求协议</t>
+  </si>
+  <si>
     <t>请求头</t>
   </si>
   <si>
@@ -48,10 +51,28 @@
     <t>断言</t>
   </si>
   <si>
-    <t>ces</t>
-  </si>
-  <si>
-    <t>ming</t>
+    <t>是否保存测试结果</t>
+  </si>
+  <si>
+    <t>是否依赖接口</t>
+  </si>
+  <si>
+    <t>依赖接口</t>
+  </si>
+  <si>
+    <t>依赖接口参数</t>
+  </si>
+  <si>
+    <t>是否查询数据库</t>
+  </si>
+  <si>
+    <t>数据库语句</t>
+  </si>
+  <si>
+    <t>数据库比较字段</t>
+  </si>
+  <si>
+    <t>昨夜西风凋碧树</t>
   </si>
   <si>
     <t>test</t>
@@ -83,12 +104,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +118,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF93A2A9"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,7 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,65 +214,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,43 +246,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,7 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F4F6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,19 +295,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,84 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,74 +455,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -458,10 +467,75 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFF2F5F8"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,81 +558,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +582,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,12 +726,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,22 +1076,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="62.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1104,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1135,126 +1134,159 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="54.75" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="54.75" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="54.75" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
